--- a/Users and Requirements.xlsx
+++ b/Users and Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/dgmrob001_myuct_ac_za/Documents/2023 Work/EEE3088F/EEE3088F-Project-CKR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE3088F/EEE3088F-Project-CKR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE184D4-5878-4850-A2A3-AD9B0A0FAC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E83C14-C43D-7E42-A0E2-80C1EDA3CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD4AB74A-1302-4983-A2A1-1E227B453559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CD4AB74A-1302-4983-A2A1-1E227B453559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,17 +488,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039EEF4B-9835-4FDD-B69C-A7F2BD52499C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -531,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -539,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -547,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -555,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -563,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -579,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -587,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -603,7 +602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -619,23 +618,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -651,7 +650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -659,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -667,23 +666,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -691,15 +690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,8 +706,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
